--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Sdc1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6372428978811771</v>
+        <v>0.6472015</v>
       </c>
       <c r="H2">
-        <v>0.6372428978811771</v>
+        <v>1.294403</v>
       </c>
       <c r="I2">
-        <v>0.02361320375102848</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J2">
-        <v>0.02361320375102848</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.96454710372563</v>
+        <v>3.152962</v>
       </c>
       <c r="N2">
-        <v>2.96454710372563</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O2">
-        <v>0.1255664292712438</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P2">
-        <v>0.1255664292712438</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q2">
-        <v>1.889136587283371</v>
+        <v>2.040601735843</v>
       </c>
       <c r="R2">
-        <v>1.889136587283371</v>
+        <v>8.162406943372002</v>
       </c>
       <c r="S2">
-        <v>0.002965025678670986</v>
+        <v>0.002604913436353197</v>
       </c>
       <c r="T2">
-        <v>0.002965025678670986</v>
+        <v>0.001445616334788888</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6372428978811771</v>
+        <v>0.6472015</v>
       </c>
       <c r="H3">
-        <v>0.6372428978811771</v>
+        <v>1.294403</v>
       </c>
       <c r="I3">
-        <v>0.02361320375102848</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J3">
-        <v>0.02361320375102848</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.32523025636085</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N3">
-        <v>8.32523025636085</v>
+        <v>26.240334</v>
       </c>
       <c r="O3">
-        <v>0.3526236553429724</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P3">
-        <v>0.3526236553429724</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q3">
-        <v>5.305193854091443</v>
+        <v>5.660927841767</v>
       </c>
       <c r="R3">
-        <v>5.305193854091443</v>
+        <v>33.965567050602</v>
       </c>
       <c r="S3">
-        <v>0.008326574221046049</v>
+        <v>0.007226411081706199</v>
       </c>
       <c r="T3">
-        <v>0.008326574221046049</v>
+        <v>0.00601552690148442</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6372428978811771</v>
+        <v>0.6472015</v>
       </c>
       <c r="H4">
-        <v>0.6372428978811771</v>
+        <v>1.294403</v>
       </c>
       <c r="I4">
-        <v>0.02361320375102848</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J4">
-        <v>0.02361320375102848</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.69796761232365</v>
+        <v>1.188721</v>
       </c>
       <c r="N4">
-        <v>0.69796761232365</v>
+        <v>3.566163</v>
       </c>
       <c r="O4">
-        <v>0.02956313317346694</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P4">
-        <v>0.02956313317346694</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q4">
-        <v>0.4447749039043287</v>
+        <v>0.7693420142815</v>
       </c>
       <c r="R4">
-        <v>0.4447749039043287</v>
+        <v>4.616052085689</v>
       </c>
       <c r="S4">
-        <v>0.000698080287143864</v>
+        <v>0.0009820972485476221</v>
       </c>
       <c r="T4">
-        <v>0.000698080287143864</v>
+        <v>0.00081753339959691</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6372428978811771</v>
+        <v>0.6472015</v>
       </c>
       <c r="H5">
-        <v>0.6372428978811771</v>
+        <v>1.294403</v>
       </c>
       <c r="I5">
-        <v>0.02361320375102848</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J5">
-        <v>0.02361320375102848</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.716867645186256</v>
+        <v>0.700844</v>
       </c>
       <c r="N5">
-        <v>0.716867645186256</v>
+        <v>2.102532</v>
       </c>
       <c r="O5">
-        <v>0.03036366342535065</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P5">
-        <v>0.03036366342535065</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q5">
-        <v>0.4568188156157452</v>
+        <v>0.453587288066</v>
       </c>
       <c r="R5">
-        <v>0.4568188156157452</v>
+        <v>2.721523728396</v>
       </c>
       <c r="S5">
-        <v>0.0007169833710904561</v>
+        <v>0.0005790231383656129</v>
       </c>
       <c r="T5">
-        <v>0.0007169833710904561</v>
+        <v>0.0004819998787832441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6372428978811771</v>
+        <v>0.6472015</v>
       </c>
       <c r="H6">
-        <v>0.6372428978811771</v>
+        <v>1.294403</v>
       </c>
       <c r="I6">
-        <v>0.02361320375102848</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J6">
-        <v>0.02361320375102848</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.9047798046547</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N6">
-        <v>10.9047798046547</v>
+        <v>2.258587</v>
       </c>
       <c r="O6">
-        <v>0.4618831187869663</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P6">
-        <v>0.4618831187869663</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q6">
-        <v>6.948993483474297</v>
+        <v>0.4872536314268334</v>
       </c>
       <c r="R6">
-        <v>6.948993483474297</v>
+        <v>2.923521788561001</v>
       </c>
       <c r="S6">
-        <v>0.01090654019307712</v>
+        <v>0.0006219996333048794</v>
       </c>
       <c r="T6">
-        <v>0.01090654019307712</v>
+        <v>0.0005177750732076426</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.09633485901022</v>
+        <v>0.6472015</v>
       </c>
       <c r="H7">
-        <v>2.09633485901022</v>
+        <v>1.294403</v>
       </c>
       <c r="I7">
-        <v>0.07768024142879044</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J7">
-        <v>0.07768024142879044</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.96454710372563</v>
+        <v>10.911117</v>
       </c>
       <c r="N7">
-        <v>2.96454710372563</v>
+        <v>21.822234</v>
       </c>
       <c r="O7">
-        <v>0.1255664292712438</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P7">
-        <v>0.1255664292712438</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q7">
-        <v>6.214683434717824</v>
+        <v>7.0616912890755</v>
       </c>
       <c r="R7">
-        <v>6.214683434717824</v>
+        <v>28.246765156302</v>
       </c>
       <c r="S7">
-        <v>0.009754030541141356</v>
+        <v>0.009014544190168413</v>
       </c>
       <c r="T7">
-        <v>0.009754030541141356</v>
+        <v>0.005002689206527934</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.09633485901022</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H8">
-        <v>2.09633485901022</v>
+        <v>2.626902</v>
       </c>
       <c r="I8">
-        <v>0.07768024142879044</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J8">
-        <v>0.07768024142879044</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.32523025636085</v>
+        <v>3.152962</v>
       </c>
       <c r="N8">
-        <v>8.32523025636085</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O8">
-        <v>0.3526236553429724</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P8">
-        <v>0.3526236553429724</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q8">
-        <v>17.45247039569584</v>
+        <v>2.760840727908001</v>
       </c>
       <c r="R8">
-        <v>17.45247039569584</v>
+        <v>16.565044367448</v>
       </c>
       <c r="S8">
-        <v>0.02739189068054469</v>
+        <v>0.003524328623972125</v>
       </c>
       <c r="T8">
-        <v>0.02739189068054469</v>
+        <v>0.002933779078918699</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>2.09633485901022</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H9">
-        <v>2.09633485901022</v>
+        <v>2.626902</v>
       </c>
       <c r="I9">
-        <v>0.07768024142879044</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J9">
-        <v>0.07768024142879044</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.69796761232365</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N9">
-        <v>0.69796761232365</v>
+        <v>26.240334</v>
       </c>
       <c r="O9">
-        <v>0.02956313317346694</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P9">
-        <v>0.02956313317346694</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q9">
-        <v>1.463173836174199</v>
+        <v>7.658976207252002</v>
       </c>
       <c r="R9">
-        <v>1.463173836174199</v>
+        <v>68.93078586526801</v>
       </c>
       <c r="S9">
-        <v>0.002296471322306396</v>
+        <v>0.009777003361578622</v>
       </c>
       <c r="T9">
-        <v>0.002296471322306396</v>
+        <v>0.01220809875175137</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>2.09633485901022</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H10">
-        <v>2.09633485901022</v>
+        <v>2.626902</v>
       </c>
       <c r="I10">
-        <v>0.07768024142879044</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J10">
-        <v>0.07768024142879044</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.716867645186256</v>
+        <v>1.188721</v>
       </c>
       <c r="N10">
-        <v>0.716867645186256</v>
+        <v>3.566163</v>
       </c>
       <c r="O10">
-        <v>0.03036366342535065</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P10">
-        <v>0.03036366342535065</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q10">
-        <v>1.502794633900518</v>
+        <v>1.040884524114</v>
       </c>
       <c r="R10">
-        <v>1.502794633900518</v>
+        <v>9.367960717026001</v>
       </c>
       <c r="S10">
-        <v>0.002358656705543773</v>
+        <v>0.001328732615939161</v>
       </c>
       <c r="T10">
-        <v>0.002358656705543773</v>
+        <v>0.001659127893297468</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>2.09633485901022</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H11">
-        <v>2.09633485901022</v>
+        <v>2.626902</v>
       </c>
       <c r="I11">
-        <v>0.07768024142879044</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J11">
-        <v>0.07768024142879044</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.9047798046547</v>
+        <v>0.700844</v>
       </c>
       <c r="N11">
-        <v>10.9047798046547</v>
+        <v>2.102532</v>
       </c>
       <c r="O11">
-        <v>0.4618831187869663</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P11">
-        <v>0.4618831187869663</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q11">
-        <v>22.86007003432831</v>
+        <v>0.6136828350960001</v>
       </c>
       <c r="R11">
-        <v>22.86007003432831</v>
+        <v>5.523145515864001</v>
       </c>
       <c r="S11">
-        <v>0.03587919217925424</v>
+        <v>0.0007833917979788909</v>
       </c>
       <c r="T11">
-        <v>0.03587919217925424</v>
+        <v>0.0009781856543715226</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>21.9985693361856</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H12">
-        <v>21.9985693361856</v>
+        <v>2.626902</v>
       </c>
       <c r="I12">
-        <v>0.8151627922314451</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J12">
-        <v>0.8151627922314451</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.96454710372563</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N12">
-        <v>2.96454710372563</v>
+        <v>2.258587</v>
       </c>
       <c r="O12">
-        <v>0.1255664292712438</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P12">
-        <v>0.1255664292712438</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q12">
-        <v>65.21579501169647</v>
+        <v>0.6592318563860001</v>
       </c>
       <c r="R12">
-        <v>65.21579501169647</v>
+        <v>5.933086707474001</v>
       </c>
       <c r="S12">
-        <v>0.1023570810952793</v>
+        <v>0.00084153702812692</v>
       </c>
       <c r="T12">
-        <v>0.1023570810952793</v>
+        <v>0.001050788954722218</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>21.9985693361856</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H13">
-        <v>21.9985693361856</v>
+        <v>2.626902</v>
       </c>
       <c r="I13">
-        <v>0.8151627922314451</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J13">
-        <v>0.8151627922314451</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.32523025636085</v>
+        <v>10.911117</v>
       </c>
       <c r="N13">
-        <v>8.32523025636085</v>
+        <v>21.822234</v>
       </c>
       <c r="O13">
-        <v>0.3526236553429724</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P13">
-        <v>0.3526236553429724</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q13">
-        <v>183.1431550342644</v>
+        <v>9.554145023178002</v>
       </c>
       <c r="R13">
-        <v>183.1431550342644</v>
+        <v>57.32487013906801</v>
       </c>
       <c r="S13">
-        <v>0.2874456834962361</v>
+        <v>0.01219626559489422</v>
       </c>
       <c r="T13">
-        <v>0.2874456834962361</v>
+        <v>0.01015261420284613</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.9985693361856</v>
+        <v>3.540639</v>
       </c>
       <c r="H14">
-        <v>21.9985693361856</v>
+        <v>10.621917</v>
       </c>
       <c r="I14">
-        <v>0.8151627922314451</v>
+        <v>0.1150430856889177</v>
       </c>
       <c r="J14">
-        <v>0.8151627922314451</v>
+        <v>0.1171915486778959</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.69796761232365</v>
+        <v>3.152962</v>
       </c>
       <c r="N14">
-        <v>0.69796761232365</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O14">
-        <v>0.02956313317346694</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P14">
-        <v>0.02956313317346694</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q14">
-        <v>15.35428891411373</v>
+        <v>11.163500222718</v>
       </c>
       <c r="R14">
-        <v>15.35428891411373</v>
+        <v>66.98100133630801</v>
       </c>
       <c r="S14">
-        <v>0.02409876618479337</v>
+        <v>0.01425067479660685</v>
       </c>
       <c r="T14">
-        <v>0.02409876618479337</v>
+        <v>0.01186277899693665</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.9985693361856</v>
+        <v>3.540639</v>
       </c>
       <c r="H15">
-        <v>21.9985693361856</v>
+        <v>10.621917</v>
       </c>
       <c r="I15">
-        <v>0.8151627922314451</v>
+        <v>0.1150430856889177</v>
       </c>
       <c r="J15">
-        <v>0.8151627922314451</v>
+        <v>0.1171915486778959</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.716867645186256</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N15">
-        <v>0.716867645186256</v>
+        <v>26.240334</v>
       </c>
       <c r="O15">
-        <v>0.03036366342535065</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P15">
-        <v>0.03036366342535065</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q15">
-        <v>15.77006259749795</v>
+        <v>30.969183311142</v>
       </c>
       <c r="R15">
-        <v>15.77006259749795</v>
+        <v>278.722649800278</v>
       </c>
       <c r="S15">
-        <v>0.02475132866018464</v>
+        <v>0.03953345736362038</v>
       </c>
       <c r="T15">
-        <v>0.02475132866018464</v>
+        <v>0.0493636274474292</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.9985693361856</v>
+        <v>3.540639</v>
       </c>
       <c r="H16">
-        <v>21.9985693361856</v>
+        <v>10.621917</v>
       </c>
       <c r="I16">
-        <v>0.8151627922314451</v>
+        <v>0.1150430856889177</v>
       </c>
       <c r="J16">
-        <v>0.8151627922314451</v>
+        <v>0.1171915486778959</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>10.9047798046547</v>
+        <v>1.188721</v>
       </c>
       <c r="N16">
-        <v>10.9047798046547</v>
+        <v>3.566163</v>
       </c>
       <c r="O16">
-        <v>0.4618831187869663</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P16">
-        <v>0.4618831187869663</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q16">
-        <v>239.8895546285329</v>
+        <v>4.208831932719</v>
       </c>
       <c r="R16">
-        <v>239.8895546285329</v>
+        <v>37.879487394471</v>
       </c>
       <c r="S16">
-        <v>0.3765099327949517</v>
+        <v>0.005372749939548045</v>
       </c>
       <c r="T16">
-        <v>0.3765099327949517</v>
+        <v>0.006708708118913671</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.22496521825007</v>
+        <v>3.540639</v>
       </c>
       <c r="H17">
-        <v>1.22496521825007</v>
+        <v>10.621917</v>
       </c>
       <c r="I17">
-        <v>0.04539140943373137</v>
+        <v>0.1150430856889177</v>
       </c>
       <c r="J17">
-        <v>0.04539140943373137</v>
+        <v>0.1171915486778959</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.96454710372563</v>
+        <v>0.700844</v>
       </c>
       <c r="N17">
-        <v>2.96454710372563</v>
+        <v>2.102532</v>
       </c>
       <c r="O17">
-        <v>0.1255664292712438</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P17">
-        <v>0.1255664292712438</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q17">
-        <v>3.63146708992788</v>
+        <v>2.481435599316</v>
       </c>
       <c r="R17">
-        <v>3.63146708992788</v>
+        <v>22.332920393844</v>
       </c>
       <c r="S17">
-        <v>0.005699637202182698</v>
+        <v>0.003167656294986469</v>
       </c>
       <c r="T17">
-        <v>0.005699637202182698</v>
+        <v>0.003955308127720409</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.22496521825007</v>
+        <v>3.540639</v>
       </c>
       <c r="H18">
-        <v>1.22496521825007</v>
+        <v>10.621917</v>
       </c>
       <c r="I18">
-        <v>0.04539140943373137</v>
+        <v>0.1150430856889177</v>
       </c>
       <c r="J18">
-        <v>0.04539140943373137</v>
+        <v>0.1171915486778959</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.32523025636085</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N18">
-        <v>8.32523025636085</v>
+        <v>2.258587</v>
       </c>
       <c r="O18">
-        <v>0.3526236553429724</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P18">
-        <v>0.3526236553429724</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q18">
-        <v>10.19811749796516</v>
+        <v>2.665613739031</v>
       </c>
       <c r="R18">
-        <v>10.19811749796516</v>
+        <v>23.990523651279</v>
       </c>
       <c r="S18">
-        <v>0.01600608471569184</v>
+        <v>0.003402767391090649</v>
       </c>
       <c r="T18">
-        <v>0.01600608471569184</v>
+        <v>0.004248880644034743</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.22496521825007</v>
+        <v>3.540639</v>
       </c>
       <c r="H19">
-        <v>1.22496521825007</v>
+        <v>10.621917</v>
       </c>
       <c r="I19">
-        <v>0.04539140943373137</v>
+        <v>0.1150430856889177</v>
       </c>
       <c r="J19">
-        <v>0.04539140943373137</v>
+        <v>0.1171915486778959</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.69796761232365</v>
+        <v>10.911117</v>
       </c>
       <c r="N19">
-        <v>0.69796761232365</v>
+        <v>21.822234</v>
       </c>
       <c r="O19">
-        <v>0.02956313317346694</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P19">
-        <v>0.02956313317346694</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q19">
-        <v>0.8549860485615203</v>
+        <v>38.632326383763</v>
       </c>
       <c r="R19">
-        <v>0.8549860485615203</v>
+        <v>231.793958302578</v>
       </c>
       <c r="S19">
-        <v>0.001341912282020764</v>
+        <v>0.04931577990306527</v>
       </c>
       <c r="T19">
-        <v>0.001341912282020764</v>
+        <v>0.04105224534286121</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.22496521825007</v>
+        <v>23.42392733333334</v>
       </c>
       <c r="H20">
-        <v>1.22496521825007</v>
+        <v>70.271782</v>
       </c>
       <c r="I20">
-        <v>0.04539140943373137</v>
+        <v>0.761094502822696</v>
       </c>
       <c r="J20">
-        <v>0.04539140943373137</v>
+        <v>0.7753081633885378</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.716867645186256</v>
+        <v>3.152962</v>
       </c>
       <c r="N20">
-        <v>0.716867645186256</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O20">
-        <v>0.03036366342535065</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P20">
-        <v>0.03036366342535065</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q20">
-        <v>0.8781379314419959</v>
+        <v>73.85475277276134</v>
       </c>
       <c r="R20">
-        <v>0.8781379314419959</v>
+        <v>443.1285166365681</v>
       </c>
       <c r="S20">
-        <v>0.001378249478448106</v>
+        <v>0.09427867988989659</v>
       </c>
       <c r="T20">
-        <v>0.001378249478448106</v>
+        <v>0.07848099543490225</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,309 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.22496521825007</v>
+        <v>23.42392733333334</v>
       </c>
       <c r="H21">
-        <v>1.22496521825007</v>
+        <v>70.271782</v>
       </c>
       <c r="I21">
-        <v>0.04539140943373137</v>
+        <v>0.761094502822696</v>
       </c>
       <c r="J21">
-        <v>0.04539140943373137</v>
+        <v>0.7753081633885378</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.9047798046547</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N21">
-        <v>10.9047798046547</v>
+        <v>26.240334</v>
       </c>
       <c r="O21">
-        <v>0.4618831187869663</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P21">
-        <v>0.4618831187869663</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q21">
-        <v>13.3579759733778</v>
+        <v>204.8838922727987</v>
       </c>
       <c r="R21">
-        <v>13.3579759733778</v>
+        <v>1843.955030455188</v>
       </c>
       <c r="S21">
-        <v>0.02096552575538797</v>
+        <v>0.261542854982074</v>
       </c>
       <c r="T21">
-        <v>0.02096552575538797</v>
+        <v>0.3265766496494899</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.02960683953876</v>
+        <v>23.42392733333334</v>
       </c>
       <c r="H22">
-        <v>1.02960683953876</v>
+        <v>70.271782</v>
       </c>
       <c r="I22">
-        <v>0.03815235315500464</v>
+        <v>0.761094502822696</v>
       </c>
       <c r="J22">
-        <v>0.03815235315500464</v>
+        <v>0.7753081633885378</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>2.96454710372563</v>
+        <v>1.188721</v>
       </c>
       <c r="N22">
-        <v>2.96454710372563</v>
+        <v>3.566163</v>
       </c>
       <c r="O22">
-        <v>0.1255664292712438</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P22">
-        <v>0.1255664292712438</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q22">
-        <v>3.052317974130731</v>
+        <v>27.84451432360733</v>
       </c>
       <c r="R22">
-        <v>3.052317974130731</v>
+        <v>250.600628912466</v>
       </c>
       <c r="S22">
-        <v>0.004790654753969405</v>
+        <v>0.03554468675404199</v>
       </c>
       <c r="T22">
-        <v>0.004790654753969405</v>
+        <v>0.04438303127711613</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.02960683953876</v>
+        <v>23.42392733333334</v>
       </c>
       <c r="H23">
-        <v>1.02960683953876</v>
+        <v>70.271782</v>
       </c>
       <c r="I23">
-        <v>0.03815235315500464</v>
+        <v>0.761094502822696</v>
       </c>
       <c r="J23">
-        <v>0.03815235315500464</v>
+        <v>0.7753081633885378</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.32523025636085</v>
+        <v>0.700844</v>
       </c>
       <c r="N23">
-        <v>8.32523025636085</v>
+        <v>2.102532</v>
       </c>
       <c r="O23">
-        <v>0.3526236553429724</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P23">
-        <v>0.3526236553429724</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q23">
-        <v>8.571714012684156</v>
+        <v>16.41651892800267</v>
       </c>
       <c r="R23">
-        <v>8.571714012684156</v>
+        <v>147.748670352024</v>
       </c>
       <c r="S23">
-        <v>0.01345342222945372</v>
+        <v>0.02095637281031445</v>
       </c>
       <c r="T23">
-        <v>0.01345342222945372</v>
+        <v>0.02616726815828035</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.02960683953876</v>
+        <v>23.42392733333334</v>
       </c>
       <c r="H24">
-        <v>1.02960683953876</v>
+        <v>70.271782</v>
       </c>
       <c r="I24">
-        <v>0.03815235315500464</v>
+        <v>0.761094502822696</v>
       </c>
       <c r="J24">
-        <v>0.03815235315500464</v>
+        <v>0.7753081633885378</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.69796761232365</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N24">
-        <v>0.69796761232365</v>
+        <v>2.258587</v>
       </c>
       <c r="O24">
-        <v>0.02956313317346694</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P24">
-        <v>0.02956313317346694</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q24">
-        <v>0.7186322274249678</v>
+        <v>17.63499258800378</v>
       </c>
       <c r="R24">
-        <v>0.7186322274249678</v>
+        <v>158.714933292034</v>
       </c>
       <c r="S24">
-        <v>0.001127903097202544</v>
+        <v>0.02251180538347559</v>
       </c>
       <c r="T24">
-        <v>0.001127903097202544</v>
+        <v>0.0281094659619002</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.02960683953876</v>
+        <v>23.42392733333334</v>
       </c>
       <c r="H25">
-        <v>1.02960683953876</v>
+        <v>70.271782</v>
       </c>
       <c r="I25">
-        <v>0.03815235315500464</v>
+        <v>0.761094502822696</v>
       </c>
       <c r="J25">
-        <v>0.03815235315500464</v>
+        <v>0.7753081633885378</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.716867645186256</v>
+        <v>10.911117</v>
       </c>
       <c r="N25">
-        <v>0.716867645186256</v>
+        <v>21.822234</v>
       </c>
       <c r="O25">
-        <v>0.03036366342535065</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P25">
-        <v>0.03036366342535065</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q25">
-        <v>0.7380918305278142</v>
+        <v>255.581211733498</v>
       </c>
       <c r="R25">
-        <v>0.7380918305278142</v>
+        <v>1533.487270400988</v>
       </c>
       <c r="S25">
-        <v>0.001158445210083676</v>
+        <v>0.3262601030028934</v>
       </c>
       <c r="T25">
-        <v>0.001158445210083676</v>
+        <v>0.2715907529068489</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.243757666666667</v>
+      </c>
+      <c r="H26">
+        <v>3.731273</v>
+      </c>
+      <c r="I26">
+        <v>0.04041240008444284</v>
+      </c>
+      <c r="J26">
+        <v>0.04116711337605242</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.152962</v>
+      </c>
+      <c r="N26">
+        <v>6.305924000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.1238725014308239</v>
+      </c>
+      <c r="P26">
+        <v>0.1012255502275323</v>
+      </c>
+      <c r="Q26">
+        <v>3.921520660208667</v>
+      </c>
+      <c r="R26">
+        <v>23.529123961252</v>
+      </c>
+      <c r="S26">
+        <v>0.005005985087283172</v>
+      </c>
+      <c r="T26">
+        <v>0.00416716370277011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.243757666666667</v>
+      </c>
+      <c r="H27">
+        <v>3.731273</v>
+      </c>
+      <c r="I27">
+        <v>0.04041240008444284</v>
+      </c>
+      <c r="J27">
+        <v>0.04116711337605242</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>8.746778000000001</v>
+      </c>
+      <c r="N27">
+        <v>26.240334</v>
+      </c>
+      <c r="O27">
+        <v>0.3436404467672299</v>
+      </c>
+      <c r="P27">
+        <v>0.4212217348804431</v>
+      </c>
+      <c r="Q27">
+        <v>10.87887219613133</v>
+      </c>
+      <c r="R27">
+        <v>97.909849765182</v>
+      </c>
+      <c r="S27">
+        <v>0.01388733521995397</v>
+      </c>
+      <c r="T27">
+        <v>0.01734048291628069</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.243757666666667</v>
+      </c>
+      <c r="H28">
+        <v>3.731273</v>
+      </c>
+      <c r="I28">
+        <v>0.04041240008444284</v>
+      </c>
+      <c r="J28">
+        <v>0.04116711337605242</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>1.188721</v>
+      </c>
+      <c r="N28">
+        <v>3.566163</v>
+      </c>
+      <c r="O28">
+        <v>0.04670206738087879</v>
+      </c>
+      <c r="P28">
+        <v>0.05724566485039578</v>
+      </c>
+      <c r="Q28">
+        <v>1.478480857277666</v>
+      </c>
+      <c r="R28">
+        <v>13.306327715499</v>
+      </c>
+      <c r="S28">
+        <v>0.001887342631766681</v>
+      </c>
+      <c r="T28">
+        <v>0.002356638775183742</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.243757666666667</v>
+      </c>
+      <c r="H29">
+        <v>3.731273</v>
+      </c>
+      <c r="I29">
+        <v>0.04041240008444284</v>
+      </c>
+      <c r="J29">
+        <v>0.04116711337605242</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.700844</v>
+      </c>
+      <c r="N29">
+        <v>2.102532</v>
+      </c>
+      <c r="O29">
+        <v>0.02753452131449231</v>
+      </c>
+      <c r="P29">
+        <v>0.03375079664312381</v>
+      </c>
+      <c r="Q29">
+        <v>0.8716800981373333</v>
+      </c>
+      <c r="R29">
+        <v>7.845120883236</v>
+      </c>
+      <c r="S29">
+        <v>0.001112736091494882</v>
+      </c>
+      <c r="T29">
+        <v>0.001389422871939567</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.243757666666667</v>
+      </c>
+      <c r="H30">
+        <v>3.731273</v>
+      </c>
+      <c r="I30">
+        <v>0.04041240008444284</v>
+      </c>
+      <c r="J30">
+        <v>0.04116711337605242</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.7528623333333334</v>
+      </c>
+      <c r="N30">
+        <v>2.258587</v>
+      </c>
+      <c r="O30">
+        <v>0.02957819994755621</v>
+      </c>
+      <c r="P30">
+        <v>0.03625586223553463</v>
+      </c>
+      <c r="Q30">
+        <v>0.9363782990278889</v>
+      </c>
+      <c r="R30">
+        <v>8.427404691251001</v>
+      </c>
+      <c r="S30">
+        <v>0.001195326050058288</v>
+      </c>
+      <c r="T30">
+        <v>0.001492549191196791</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.243757666666667</v>
+      </c>
+      <c r="H31">
+        <v>3.731273</v>
+      </c>
+      <c r="I31">
+        <v>0.04041240008444284</v>
+      </c>
+      <c r="J31">
+        <v>0.04116711337605242</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>10.911117</v>
+      </c>
+      <c r="N31">
+        <v>21.822234</v>
+      </c>
+      <c r="O31">
+        <v>0.4286722631590189</v>
+      </c>
+      <c r="P31">
+        <v>0.3503003911629703</v>
+      </c>
+      <c r="Q31">
+        <v>13.570785420647</v>
+      </c>
+      <c r="R31">
+        <v>81.42471252388201</v>
+      </c>
+      <c r="S31">
+        <v>0.01732367500388584</v>
+      </c>
+      <c r="T31">
+        <v>0.01442085591868151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.045475</v>
+      </c>
+      <c r="H32">
+        <v>2.09095</v>
+      </c>
+      <c r="I32">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J32">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.152962</v>
+      </c>
+      <c r="N32">
+        <v>6.305924000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.1238725014308239</v>
+      </c>
+      <c r="P32">
+        <v>0.1012255502275323</v>
+      </c>
+      <c r="Q32">
+        <v>3.296342946950001</v>
+      </c>
+      <c r="R32">
+        <v>13.1853717878</v>
+      </c>
+      <c r="S32">
+        <v>0.004207919596711933</v>
+      </c>
+      <c r="T32">
+        <v>0.00233521667921569</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.045475</v>
+      </c>
+      <c r="H33">
+        <v>2.09095</v>
+      </c>
+      <c r="I33">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J33">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>8.746778000000001</v>
+      </c>
+      <c r="N33">
+        <v>26.240334</v>
+      </c>
+      <c r="O33">
+        <v>0.3436404467672299</v>
+      </c>
+      <c r="P33">
+        <v>0.4212217348804431</v>
+      </c>
+      <c r="Q33">
+        <v>9.144537729550002</v>
+      </c>
+      <c r="R33">
+        <v>54.86722637730001</v>
+      </c>
+      <c r="S33">
+        <v>0.01167338475829674</v>
+      </c>
+      <c r="T33">
+        <v>0.009717349214007423</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.045475</v>
+      </c>
+      <c r="H34">
+        <v>2.09095</v>
+      </c>
+      <c r="I34">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J34">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>1.188721</v>
+      </c>
+      <c r="N34">
+        <v>3.566163</v>
+      </c>
+      <c r="O34">
+        <v>0.04670206738087879</v>
+      </c>
+      <c r="P34">
+        <v>0.05724566485039578</v>
+      </c>
+      <c r="Q34">
+        <v>1.242778087475</v>
+      </c>
+      <c r="R34">
+        <v>7.456668524850001</v>
+      </c>
+      <c r="S34">
+        <v>0.001586458191035288</v>
+      </c>
+      <c r="T34">
+        <v>0.001320625386287856</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.045475</v>
+      </c>
+      <c r="H35">
+        <v>2.09095</v>
+      </c>
+      <c r="I35">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J35">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.700844</v>
+      </c>
+      <c r="N35">
+        <v>2.102532</v>
+      </c>
+      <c r="O35">
+        <v>0.02753452131449231</v>
+      </c>
+      <c r="P35">
+        <v>0.03375079664312381</v>
+      </c>
+      <c r="Q35">
+        <v>0.7327148809000001</v>
+      </c>
+      <c r="R35">
+        <v>4.396289285400001</v>
+      </c>
+      <c r="S35">
+        <v>0.0009353411813520042</v>
+      </c>
+      <c r="T35">
+        <v>0.0007786119520287148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1.02960683953876</v>
-      </c>
-      <c r="H26">
-        <v>1.02960683953876</v>
-      </c>
-      <c r="I26">
-        <v>0.03815235315500464</v>
-      </c>
-      <c r="J26">
-        <v>0.03815235315500464</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>10.9047798046547</v>
-      </c>
-      <c r="N26">
-        <v>10.9047798046547</v>
-      </c>
-      <c r="O26">
-        <v>0.4618831187869663</v>
-      </c>
-      <c r="P26">
-        <v>0.4618831187869663</v>
-      </c>
-      <c r="Q26">
-        <v>11.22763587053662</v>
-      </c>
-      <c r="R26">
-        <v>11.22763587053662</v>
-      </c>
-      <c r="S26">
-        <v>0.0176219278642953</v>
-      </c>
-      <c r="T26">
-        <v>0.0176219278642953</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.045475</v>
+      </c>
+      <c r="H36">
+        <v>2.09095</v>
+      </c>
+      <c r="I36">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J36">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.7528623333333334</v>
+      </c>
+      <c r="N36">
+        <v>2.258587</v>
+      </c>
+      <c r="O36">
+        <v>0.02957819994755621</v>
+      </c>
+      <c r="P36">
+        <v>0.03625586223553463</v>
+      </c>
+      <c r="Q36">
+        <v>0.7870987479416669</v>
+      </c>
+      <c r="R36">
+        <v>4.722592487650002</v>
+      </c>
+      <c r="S36">
+        <v>0.001004764461499886</v>
+      </c>
+      <c r="T36">
+        <v>0.0008364024104730292</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.045475</v>
+      </c>
+      <c r="H37">
+        <v>2.09095</v>
+      </c>
+      <c r="I37">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J37">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>10.911117</v>
+      </c>
+      <c r="N37">
+        <v>21.822234</v>
+      </c>
+      <c r="O37">
+        <v>0.4286722631590189</v>
+      </c>
+      <c r="P37">
+        <v>0.3503003911629703</v>
+      </c>
+      <c r="Q37">
+        <v>11.407300045575</v>
+      </c>
+      <c r="R37">
+        <v>45.62920018230001</v>
+      </c>
+      <c r="S37">
+        <v>0.01456189546411175</v>
+      </c>
+      <c r="T37">
+        <v>0.008081233585204597</v>
       </c>
     </row>
   </sheetData>
